--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -135,10 +135,10 @@
     <t>Consultar Manutenção</t>
   </si>
   <si>
-    <t xml:space="preserve"> No final da semana o Gerente Operacional encaminha as informações para o Administrativo</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>O Gerente Operacional encaminha as informações para o Administrativo  no final da semana</t>
   </si>
 </sst>
 </file>
@@ -379,6 +379,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,16 +410,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,7 +781,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,15 +794,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7"/>
@@ -855,7 +855,7 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1">
         <v>2</v>
@@ -873,7 +873,7 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1">
         <v>3</v>
@@ -891,7 +891,7 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1">
         <v>4</v>
@@ -909,7 +909,7 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>5</v>
@@ -927,7 +927,7 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1">
         <v>6</v>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="9"/>
       <c r="C9" s="1">
         <v>7</v>
@@ -963,7 +963,7 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10"/>
@@ -983,7 +983,7 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11"/>
       <c r="C11" s="1">
         <v>9</v>
@@ -1001,7 +1001,7 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>10</v>
@@ -1019,7 +1019,7 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>11</v>
@@ -1037,7 +1037,7 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>12</v>
@@ -1055,7 +1055,7 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="12"/>
       <c r="C15" s="1">
         <v>13</v>
@@ -1073,21 +1073,21 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="20">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1095,23 +1095,23 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="20">
         <v>1</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>39</v>
+      <c r="D17" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="19"/>

--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Capacidades</t>
   </si>
@@ -51,36 +51,6 @@
     <t>Temporal</t>
   </si>
   <si>
-    <t>O setor de vendas recebe o pedido e passa para o setor financeiro</t>
-  </si>
-  <si>
-    <t>Setor financeiro valida o pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido é armazenado </t>
-  </si>
-  <si>
-    <t>Contas atrasadas são vistas diariamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodicamente é visto quais são as contas atrasdas e é feita a cobrança do cliente </t>
-  </si>
-  <si>
-    <t>As contas recebidas são retiradas das contas atrasadas</t>
-  </si>
-  <si>
-    <t>Ocorre validação dos dados</t>
-  </si>
-  <si>
-    <t>Diariamente é visto quais são as contas que serão vencidas hoje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As contas que estão vencendo são pagas </t>
-  </si>
-  <si>
-    <t>É dado baixa das contas ja pagas</t>
-  </si>
-  <si>
     <t>Contas a Pagar</t>
   </si>
   <si>
@@ -90,39 +60,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>x(1)</t>
-  </si>
-  <si>
-    <t>x(2)</t>
-  </si>
-  <si>
-    <t>x(4)</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
-    <t>Conta é cadastrada pela gerente</t>
-  </si>
-  <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>Conta é colocada na pilha de contas a pagar</t>
-  </si>
-  <si>
-    <t>x(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas atrasadas são colocadas na pilhas de contas atrasadas </t>
-  </si>
-  <si>
-    <t>x(11)</t>
-  </si>
-  <si>
-    <t>x(12)</t>
-  </si>
-  <si>
     <t>Registrar Manutenção</t>
   </si>
   <si>
@@ -139,6 +76,27 @@
   </si>
   <si>
     <t>O Gerente Operacional encaminha as informações para o Administrativo  no final da semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A atendente recebe o pedido e armazena as informações 
+</t>
+  </si>
+  <si>
+    <t>Gerente ve  diariamente  as contas e as vencindas são colocadas na pilhas de contas a cobrar</t>
+  </si>
+  <si>
+    <t>Gerente vê periodicamente quais são as contas atrasdas e são feitas as cobranças dos respectivos  clientes</t>
+  </si>
+  <si>
+    <t>A atendente  cadastrada a conta conforme a 
+     estratificação das contas (Divisão)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerente vê diariamente quais são as contas que serão vencidas no dia
+</t>
+  </si>
+  <si>
+    <t>Gerente paga as contas que estão vencendo</t>
   </si>
 </sst>
 </file>
@@ -340,33 +298,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,29 +325,50 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,15 +752,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -834,296 +792,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7"/>
+    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14" t="s">
+    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -78,14 +78,7 @@
     <t>O Gerente Operacional encaminha as informações para o Administrativo  no final da semana</t>
   </si>
   <si>
-    <t xml:space="preserve">A atendente recebe o pedido e armazena as informações 
-</t>
-  </si>
-  <si>
     <t>Gerente ve  diariamente  as contas e as vencindas são colocadas na pilhas de contas a cobrar</t>
-  </si>
-  <si>
-    <t>Gerente vê periodicamente quais são as contas atrasdas e são feitas as cobranças dos respectivos  clientes</t>
   </si>
   <si>
     <t>A atendente  cadastrada a conta conforme a 
@@ -97,6 +90,12 @@
   </si>
   <si>
     <t>Gerente paga as contas que estão vencendo</t>
+  </si>
+  <si>
+    <t>Atendente armazena as informações</t>
+  </si>
+  <si>
+    <t>Gerente cobra periodicamente as contas do cliente que estiver em atraso</t>
   </si>
 </sst>
 </file>
@@ -328,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,15 +339,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -366,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +738,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,15 +751,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -793,17 +792,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -815,13 +814,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -832,14 +831,14 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -851,17 +850,17 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -873,13 +872,13 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -891,13 +890,13 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>25</v>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>

--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -78,7 +78,14 @@
     <t>O Gerente Operacional encaminha as informações para o Administrativo  no final da semana</t>
   </si>
   <si>
+    <t xml:space="preserve">A atendente recebe o pedido e armazena as informações 
+</t>
+  </si>
+  <si>
     <t>Gerente ve  diariamente  as contas e as vencindas são colocadas na pilhas de contas a cobrar</t>
+  </si>
+  <si>
+    <t>Gerente vê periodicamente quais são as contas atrasdas e são feitas as cobranças dos respectivos  clientes</t>
   </si>
   <si>
     <t>A atendente  cadastrada a conta conforme a 
@@ -90,12 +97,6 @@
   </si>
   <si>
     <t>Gerente paga as contas que estão vencendo</t>
-  </si>
-  <si>
-    <t>Atendente armazena as informações</t>
-  </si>
-  <si>
-    <t>Gerente cobra periodicamente as contas do cliente que estiver em atraso</t>
   </si>
 </sst>
 </file>
@@ -327,47 +328,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +739,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,15 +752,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -792,17 +793,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -814,13 +815,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -831,14 +832,14 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -850,17 +851,17 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -872,13 +873,13 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -890,13 +891,13 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>23</v>
+      <c r="D8" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>

--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\pos-fit-es10\trunk\TCC - Monografia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Capacidades</t>
   </si>
@@ -278,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,21 +336,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -366,9 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,6 +392,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,6 +460,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1381125" y="3086100"/>
+          <a:ext cx="10125075" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -492,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,15 +823,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -793,10 +864,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1">
@@ -815,8 +886,8 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -834,7 +905,7 @@
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -851,10 +922,10 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1">
@@ -873,8 +944,8 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -891,12 +962,12 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="9"/>
@@ -983,12 +1054,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\pos-fit-es10\trunk\TCC - Monografia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Capacidades</t>
   </si>
@@ -102,13 +97,25 @@
   </si>
   <si>
     <t>Gerente paga as contas que estão vencendo</t>
+  </si>
+  <si>
+    <t>Registrar Motoboy</t>
+  </si>
+  <si>
+    <t>Registrar Veículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motoboy envia informações sobre seus dados pessoais. </t>
+  </si>
+  <si>
+    <t>Proprietário envia informações sobre o novo veículo para o Coordenador Administrativo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,10 +430,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -446,67 +453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1381125" y="3086100"/>
-          <a:ext cx="10125075" cy="2524125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -563,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,10 +542,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +576,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -806,14 +751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -822,7 +767,7 @@
     <col min="5" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1">
       <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
@@ -833,7 +778,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -863,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="33.75" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -885,7 +830,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="21"/>
       <c r="B4" s="27"/>
       <c r="C4" s="1">
@@ -903,7 +848,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="22"/>
       <c r="B5" s="28"/>
       <c r="C5" s="1">
@@ -921,7 +866,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="34.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -943,7 +888,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="34.5" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="30"/>
       <c r="C7" s="1">
@@ -961,7 +906,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="32.25" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="31"/>
       <c r="C8" s="1">
@@ -979,7 +924,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="72" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +946,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
@@ -1038,14 +983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1053,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1069,7 +1014,7 @@
     <col min="5" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1">
       <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1025,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="72" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1077,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="72" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>19</v>
@@ -1153,6 +1098,50 @@
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="84.75" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="67.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1160,6 +1149,5 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Capacidades</t>
   </si>
@@ -109,13 +109,28 @@
   </si>
   <si>
     <t>Proprietário envia informações sobre o novo veículo para o Coordenador Administrativo.</t>
+  </si>
+  <si>
+    <t>Registrar OS</t>
+  </si>
+  <si>
+    <t>Imprimir OS</t>
+  </si>
+  <si>
+    <t>X(FB5)</t>
+  </si>
+  <si>
+    <t>Cliente solicita OS para o Coordenador de Vendas</t>
+  </si>
+  <si>
+    <t>Gerente Operacional efetua a impressão da OS para a realização do serviço.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +448,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -453,7 +468,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -542,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,6 +592,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -751,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -767,7 +784,7 @@
     <col min="5" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
@@ -778,7 +795,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33.75" customHeight="1">
+    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -830,7 +847,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="27"/>
       <c r="C4" s="1">
@@ -848,7 +865,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="28"/>
       <c r="C5" s="1">
@@ -866,7 +883,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="34.5" customHeight="1">
+    <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -888,7 +905,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="34.5" customHeight="1">
+    <row r="7" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="30"/>
       <c r="C7" s="1">
@@ -906,7 +923,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1">
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="31"/>
       <c r="C8" s="1">
@@ -924,7 +941,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="72" customHeight="1">
+    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
@@ -946,7 +963,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="72" customHeight="1">
+    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
@@ -983,14 +1000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -998,14 +1015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1014,7 +1031,7 @@
     <col min="5" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1042,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" customHeight="1">
+    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1094,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="72" customHeight="1">
+    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1116,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="84.75" customHeight="1">
+    <row r="5" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
@@ -1121,7 +1138,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="67.5" customHeight="1">
+    <row r="6" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1142,6 +1159,50 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Modelo de Análise dos Eventos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Capacidades</t>
   </si>
@@ -769,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>23</v>
@@ -909,7 +909,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="30"/>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>24</v>
@@ -927,7 +927,7 @@
       <c r="A8" s="25"/>
       <c r="B8" s="31"/>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>25</v>
@@ -940,50 +940,6 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1018,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
